--- a/GATEWAY/A1#111#ONITSANITAXX/Onit_Sanita/OnHealth/1.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ONITSANITAXX/Onit_Sanita/OnHealth/1.2.0/report-checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\Certificazione FSE2.0\Repositiry\it-fse-accreditamento\GATEWAY\A1#111#ONITSANITAXX\Onit_Sanita\OnHealth\1.2.0\"/>
     </mc:Choice>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="362">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1377,6 +1377,18 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.daa84024a7e73aeb224b3dee073b1d0e46990ac9403fb2f7acf9cff2549713cc.20589334f7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>29/08/2024</t>
+  </si>
+  <si>
+    <t>2024-08-29T07:56:19Z</t>
+  </si>
+  <si>
+    <t>9e290b580e99e259</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.daa84024a7e73aeb224b3dee073b1d0e46990ac9403fb2f7acf9cff2549713cc.af361621be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2511,8 +2523,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="130.140625" customWidth="1"/>
-    <col min="2" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="130.140625"/>
+    <col min="2" max="26" customWidth="true" width="8.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2590,9 +2602,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="194.140625" customWidth="1"/>
-    <col min="3" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="3.140625"/>
+    <col min="2" max="2" customWidth="true" width="194.140625"/>
+    <col min="3" max="6" customWidth="true" width="8.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3662,19 +3674,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
-    <col min="5" max="5" width="104.85546875" customWidth="1"/>
-    <col min="6" max="9" width="33.140625" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="18" width="36.42578125" customWidth="1"/>
-    <col min="19" max="19" width="27.140625" customWidth="1"/>
-    <col min="20" max="20" width="33.140625" customWidth="1"/>
-    <col min="21" max="21" width="36.42578125" customWidth="1"/>
-    <col min="22" max="23" width="31.85546875" customWidth="1"/>
-    <col min="27" max="27" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.42578125"/>
+    <col min="2" max="2" customWidth="true" width="46.85546875"/>
+    <col min="3" max="3" customWidth="true" width="20.140625"/>
+    <col min="4" max="4" customWidth="true" width="63.85546875"/>
+    <col min="5" max="5" customWidth="true" width="104.85546875"/>
+    <col min="6" max="9" customWidth="true" width="33.140625"/>
+    <col min="10" max="10" customWidth="true" width="27.140625"/>
+    <col min="11" max="18" customWidth="true" width="36.42578125"/>
+    <col min="19" max="19" customWidth="true" width="27.140625"/>
+    <col min="20" max="20" customWidth="true" width="33.140625"/>
+    <col min="21" max="21" customWidth="true" width="36.42578125"/>
+    <col min="22" max="23" customWidth="true" width="31.85546875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="30.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7606,16 +7618,16 @@
         <v>177</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>233</v>
+        <v>358</v>
       </c>
       <c r="G79" s="42" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H79" s="42" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="I79" s="42" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="J79" s="43" t="s">
         <v>59</v>
@@ -11926,7 +11938,7 @@
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{F5F4AC7B-142E-4F14-AD0B-95E75DB6B433}">
           <x14:formula1>
@@ -11963,42 +11975,42 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>162</v>
       </c>
     </row>
@@ -12018,13 +12030,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="102" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="16" width="16.0"/>
+    <col min="2" max="2" customWidth="true" width="23.85546875"/>
+    <col min="3" max="3" customWidth="true" width="33.85546875"/>
+    <col min="4" max="4" customWidth="true" width="102.0"/>
+    <col min="5" max="5" customWidth="true" width="8.85546875"/>
+    <col min="6" max="6" customWidth="true" width="9.42578125"/>
+    <col min="7" max="7" customWidth="true" width="5.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13151,9 +13163,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0"/>
+    <col min="2" max="2" customWidth="true" width="13.140625"/>
+    <col min="3" max="6" customWidth="true" width="8.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
